--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H2">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I2">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J2">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N2">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O2">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P2">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q2">
-        <v>172.3318947698164</v>
+        <v>386.9262432565429</v>
       </c>
       <c r="R2">
-        <v>1550.987052928348</v>
+        <v>3482.336189308887</v>
       </c>
       <c r="S2">
-        <v>0.04569732553680386</v>
+        <v>0.08445586502910236</v>
       </c>
       <c r="T2">
-        <v>0.04569732553680384</v>
+        <v>0.08445586502910234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H3">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I3">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J3">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P3">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q3">
-        <v>249.3065693065173</v>
+        <v>444.3629303749759</v>
       </c>
       <c r="R3">
-        <v>2243.759123758656</v>
+        <v>3999.266373374783</v>
       </c>
       <c r="S3">
-        <v>0.06610873437723654</v>
+        <v>0.09699278951932594</v>
       </c>
       <c r="T3">
-        <v>0.06610873437723654</v>
+        <v>0.09699278951932591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H4">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I4">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J4">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N4">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O4">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P4">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q4">
-        <v>29.94187421430644</v>
+        <v>67.14975303521065</v>
       </c>
       <c r="R4">
-        <v>269.476867928758</v>
+        <v>604.3477773168959</v>
       </c>
       <c r="S4">
-        <v>0.007939700163923709</v>
+        <v>0.01465703238774411</v>
       </c>
       <c r="T4">
-        <v>0.007939700163923705</v>
+        <v>0.01465703238774411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H5">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I5">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J5">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N5">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O5">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P5">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q5">
-        <v>24.51504961193244</v>
+        <v>47.56104948340666</v>
       </c>
       <c r="R5">
-        <v>220.635446507392</v>
+        <v>428.04944535066</v>
       </c>
       <c r="S5">
-        <v>0.006500666659318755</v>
+        <v>0.01038133144447841</v>
       </c>
       <c r="T5">
-        <v>0.006500666659318754</v>
+        <v>0.01038133144447841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H6">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I6">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J6">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N6">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O6">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P6">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q6">
-        <v>33.75288993144677</v>
+        <v>38.52925668164033</v>
       </c>
       <c r="R6">
-        <v>303.7760093830209</v>
+        <v>346.7633101347629</v>
       </c>
       <c r="S6">
-        <v>0.008950268904461576</v>
+        <v>0.008409927624936902</v>
       </c>
       <c r="T6">
-        <v>0.008950268904461574</v>
+        <v>0.0084099276249369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>15.422326</v>
       </c>
       <c r="I7">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J7">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N7">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O7">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P7">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q7">
-        <v>444.2013938189235</v>
+        <v>559.5492796562446</v>
       </c>
       <c r="R7">
-        <v>3997.812544370311</v>
+        <v>5035.943516906202</v>
       </c>
       <c r="S7">
-        <v>0.1177890820753667</v>
+        <v>0.1221349527549269</v>
       </c>
       <c r="T7">
-        <v>0.1177890820753666</v>
+        <v>0.1221349527549269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>15.422326</v>
       </c>
       <c r="I8">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J8">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P8">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q8">
         <v>642.6107350707626</v>
@@ -948,10 +948,10 @@
         <v>5783.496615636863</v>
       </c>
       <c r="S8">
-        <v>0.1704013757476354</v>
+        <v>0.1402650930332595</v>
       </c>
       <c r="T8">
-        <v>0.1704013757476354</v>
+        <v>0.1402650930332594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>15.422326</v>
       </c>
       <c r="I9">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J9">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N9">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O9">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P9">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q9">
-        <v>77.17794942898355</v>
+        <v>97.10790259071288</v>
       </c>
       <c r="R9">
-        <v>694.601544860852</v>
+        <v>873.9711233164159</v>
       </c>
       <c r="S9">
-        <v>0.02046531133444581</v>
+        <v>0.0211961118104433</v>
       </c>
       <c r="T9">
-        <v>0.0204653113344458</v>
+        <v>0.02119611181044329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>15.422326</v>
       </c>
       <c r="I10">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J10">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N10">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O10">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P10">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q10">
-        <v>63.18980721302755</v>
+        <v>68.77990687359555</v>
       </c>
       <c r="R10">
-        <v>568.7082649172479</v>
+        <v>619.01916186236</v>
       </c>
       <c r="S10">
-        <v>0.01675606941291145</v>
+        <v>0.01501285227577384</v>
       </c>
       <c r="T10">
-        <v>0.01675606941291145</v>
+        <v>0.01501285227577384</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>15.422326</v>
       </c>
       <c r="I11">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J11">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N11">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O11">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P11">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q11">
-        <v>87.00119483390822</v>
+        <v>55.71867558129978</v>
       </c>
       <c r="R11">
-        <v>783.0107535051739</v>
+        <v>501.468080231698</v>
       </c>
       <c r="S11">
-        <v>0.0230701457076554</v>
+        <v>0.01216192756761277</v>
       </c>
       <c r="T11">
-        <v>0.02307014570765539</v>
+        <v>0.01216192756761277</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H12">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I12">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J12">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N12">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O12">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P12">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q12">
-        <v>72.67942615951954</v>
+        <v>284.7059128341371</v>
       </c>
       <c r="R12">
-        <v>654.1148354356759</v>
+        <v>2562.353215507233</v>
       </c>
       <c r="S12">
-        <v>0.01927243590906872</v>
+        <v>0.06214384412112541</v>
       </c>
       <c r="T12">
-        <v>0.01927243590906872</v>
+        <v>0.0621438441211254</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H13">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I13">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J13">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>375.008064</v>
       </c>
       <c r="O13">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P13">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q13">
-        <v>105.1428026088746</v>
+        <v>326.968655982784</v>
       </c>
       <c r="R13">
-        <v>946.2852234798719</v>
+        <v>2942.717903845056</v>
       </c>
       <c r="S13">
-        <v>0.02788076394730847</v>
+        <v>0.07136869405914106</v>
       </c>
       <c r="T13">
-        <v>0.02788076394730846</v>
+        <v>0.07136869405914105</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H14">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I14">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J14">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N14">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O14">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P14">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q14">
-        <v>12.62771606464955</v>
+        <v>49.40975720222934</v>
       </c>
       <c r="R14">
-        <v>113.649444581846</v>
+        <v>444.687814820064</v>
       </c>
       <c r="S14">
-        <v>0.003348497111131909</v>
+        <v>0.01078485592052597</v>
       </c>
       <c r="T14">
-        <v>0.003348497111131908</v>
+        <v>0.01078485592052597</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H15">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I15">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J15">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N15">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O15">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P15">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q15">
-        <v>10.33900161341155</v>
+        <v>34.99610647899334</v>
       </c>
       <c r="R15">
-        <v>93.05101452070399</v>
+        <v>314.9649583109401</v>
       </c>
       <c r="S15">
-        <v>0.002741597677462311</v>
+        <v>0.00763873347141846</v>
       </c>
       <c r="T15">
-        <v>0.00274159767746231</v>
+        <v>0.007638733471418459</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H16">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I16">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J16">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N16">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O16">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P16">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q16">
-        <v>14.23497765587522</v>
+        <v>28.35038301367967</v>
       </c>
       <c r="R16">
-        <v>128.114798902877</v>
+        <v>255.153447123117</v>
       </c>
       <c r="S16">
-        <v>0.003774695385427822</v>
+        <v>0.006188146095169774</v>
       </c>
       <c r="T16">
-        <v>0.003774695385427821</v>
+        <v>0.006188146095169773</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H17">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I17">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J17">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N17">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O17">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P17">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q17">
-        <v>434.6493359616258</v>
+        <v>462.4399984085517</v>
       </c>
       <c r="R17">
-        <v>3911.844023654631</v>
+        <v>4161.959985676966</v>
       </c>
       <c r="S17">
-        <v>0.1152561586253323</v>
+        <v>0.1009385400197729</v>
       </c>
       <c r="T17">
-        <v>0.1152561586253323</v>
+        <v>0.1009385400197729</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H18">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I18">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J18">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>375.008064</v>
       </c>
       <c r="O18">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P18">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q18">
-        <v>628.7921045879893</v>
+        <v>531.0862118989867</v>
       </c>
       <c r="R18">
-        <v>5659.128941291904</v>
+        <v>4779.775907090881</v>
       </c>
       <c r="S18">
-        <v>0.1667370833281297</v>
+        <v>0.1159222105315277</v>
       </c>
       <c r="T18">
-        <v>0.1667370833281297</v>
+        <v>0.1159222105315277</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H19">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I19">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J19">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N19">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O19">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P19">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q19">
-        <v>75.51832330328578</v>
+        <v>80.25491221630223</v>
       </c>
       <c r="R19">
-        <v>679.6649097295719</v>
+        <v>722.29420994672</v>
       </c>
       <c r="S19">
-        <v>0.0200252275331466</v>
+        <v>0.01751754540352662</v>
       </c>
       <c r="T19">
-        <v>0.0200252275331466</v>
+        <v>0.01751754540352662</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H20">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I20">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J20">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N20">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O20">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P20">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q20">
-        <v>61.83098055716978</v>
+        <v>56.8432150331889</v>
       </c>
       <c r="R20">
-        <v>556.478825014528</v>
+        <v>511.5889352987001</v>
       </c>
       <c r="S20">
-        <v>0.01639574874143181</v>
+        <v>0.01240738507747126</v>
       </c>
       <c r="T20">
-        <v>0.01639574874143181</v>
+        <v>0.01240738507747125</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H21">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I21">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J21">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N21">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O21">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P21">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q21">
-        <v>85.13033072075712</v>
+        <v>46.04874884830945</v>
       </c>
       <c r="R21">
-        <v>766.1729764868139</v>
+        <v>414.4387396347851</v>
       </c>
       <c r="S21">
-        <v>0.02257404783483862</v>
+        <v>0.01005123582406708</v>
       </c>
       <c r="T21">
-        <v>0.02257404783483862</v>
+        <v>0.01005123582406707</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H22">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I22">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J22">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>86.40747066666665</v>
+        <v>108.845309</v>
       </c>
       <c r="N22">
-        <v>259.222412</v>
+        <v>326.535927</v>
       </c>
       <c r="O22">
-        <v>0.3380062309947018</v>
+        <v>0.3930063530400584</v>
       </c>
       <c r="P22">
-        <v>0.3380062309947017</v>
+        <v>0.3930063530400583</v>
       </c>
       <c r="Q22">
-        <v>150.8132951023822</v>
+        <v>106.8985380849956</v>
       </c>
       <c r="R22">
-        <v>1357.31965592144</v>
+        <v>962.0868427649609</v>
       </c>
       <c r="S22">
-        <v>0.03999122884813024</v>
+        <v>0.02333315111513073</v>
       </c>
       <c r="T22">
-        <v>0.03999122884813022</v>
+        <v>0.02333315111513073</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H23">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I23">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J23">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>375.008064</v>
       </c>
       <c r="O23">
-        <v>0.4889818797969518</v>
+        <v>0.4513455929560021</v>
       </c>
       <c r="P23">
-        <v>0.4889818797969517</v>
+        <v>0.451345592956002</v>
       </c>
       <c r="Q23">
-        <v>218.1763582301867</v>
+        <v>122.7669315899946</v>
       </c>
       <c r="R23">
-        <v>1963.58722407168</v>
+        <v>1104.902384309952</v>
       </c>
       <c r="S23">
-        <v>0.05785392239664165</v>
+        <v>0.02679680581274788</v>
       </c>
       <c r="T23">
-        <v>0.05785392239664165</v>
+        <v>0.02679680581274788</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H24">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I24">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J24">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.01290066666667</v>
+        <v>18.88973866666667</v>
       </c>
       <c r="N24">
-        <v>45.038702</v>
+        <v>56.669216</v>
       </c>
       <c r="O24">
-        <v>0.05872702824751719</v>
+        <v>0.06820493571538706</v>
       </c>
       <c r="P24">
-        <v>0.05872702824751717</v>
+        <v>0.06820493571538705</v>
       </c>
       <c r="Q24">
-        <v>26.20311647958222</v>
+        <v>18.55188309745422</v>
       </c>
       <c r="R24">
-        <v>235.82804831624</v>
+        <v>166.966947877088</v>
       </c>
       <c r="S24">
-        <v>0.006948292104869161</v>
+        <v>0.00404939019314706</v>
       </c>
       <c r="T24">
-        <v>0.00694829210486916</v>
+        <v>0.00404939019314706</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H25">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I25">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J25">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.29188266666667</v>
+        <v>13.37928666666667</v>
       </c>
       <c r="N25">
-        <v>36.875648</v>
+        <v>40.13786</v>
       </c>
       <c r="O25">
-        <v>0.04808302916326276</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="P25">
-        <v>0.04808302916326274</v>
+        <v>0.04830841776694433</v>
       </c>
       <c r="Q25">
-        <v>21.45392422286222</v>
+        <v>13.13998920510889</v>
       </c>
       <c r="R25">
-        <v>193.08531800576</v>
+        <v>118.25990284598</v>
       </c>
       <c r="S25">
-        <v>0.005688946672138426</v>
+        <v>0.002868115497802364</v>
       </c>
       <c r="T25">
-        <v>0.005688946672138424</v>
+        <v>0.002868115497802364</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H26">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I26">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J26">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.92374966666667</v>
+        <v>10.83857433333333</v>
       </c>
       <c r="N26">
-        <v>50.771249</v>
+        <v>32.515723</v>
       </c>
       <c r="O26">
-        <v>0.06620183179756665</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="P26">
-        <v>0.06620183179756664</v>
+        <v>0.03913470052160829</v>
       </c>
       <c r="Q26">
-        <v>29.53826136820889</v>
+        <v>10.64471920566544</v>
       </c>
       <c r="R26">
-        <v>265.84435231388</v>
+        <v>95.80247285098899</v>
       </c>
       <c r="S26">
-        <v>0.007832673965183241</v>
+        <v>0.002323463409821769</v>
       </c>
       <c r="T26">
-        <v>0.007832673965183239</v>
+        <v>0.002323463409821769</v>
       </c>
     </row>
   </sheetData>
